--- a/SM2_PKM/5R_datiUtili.xlsx
+++ b/SM2_PKM/5R_datiUtili.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Documenti\MATLAB\PKMRobot\SM2_PKM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46922C30-974D-422C-A316-C1A6C31D1A51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F432D59-7965-419A-873C-4A62124EAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{482A43D7-5A74-4451-85A7-D13BB0558ECC}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">Momento d'inerzia del meccanismo all'EE </t>
   </si>
   <si>
-    <t>1/70</t>
-  </si>
-  <si>
     <t>Pulegge</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Dati link</t>
+  </si>
+  <si>
+    <t>1/64</t>
   </si>
 </sst>
 </file>
@@ -188,32 +188,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,8 +238,8 @@
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="929357" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -317,7 +317,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -384,8 +384,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666144" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CasellaDiTesto 2">
@@ -427,6 +427,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -465,7 +466,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CasellaDiTesto 2">
@@ -529,8 +530,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="344453" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CasellaDiTesto 3">
@@ -572,6 +573,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -617,7 +619,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CasellaDiTesto 3">
@@ -681,8 +683,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="347723" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CasellaDiTesto 4">
@@ -724,6 +726,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -769,7 +772,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CasellaDiTesto 4">
@@ -833,8 +836,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="347723" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CasellaDiTesto 5">
@@ -876,6 +879,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -921,7 +925,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CasellaDiTesto 5">
@@ -985,8 +989,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="347723" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CasellaDiTesto 6">
@@ -1028,6 +1032,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1073,7 +1078,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CasellaDiTesto 6">
@@ -1181,8 +1186,8 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889603" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CasellaDiTesto 9">
@@ -1279,7 +1284,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CasellaDiTesto 9">
@@ -1346,8 +1351,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1186607" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CasellaDiTesto 10">
@@ -1453,7 +1458,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CasellaDiTesto 10">
@@ -1520,8 +1525,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="966547" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CasellaDiTesto 11">
@@ -1599,7 +1604,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CasellaDiTesto 11">
@@ -1727,8 +1732,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1225785" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CasellaDiTesto 13">
@@ -1853,7 +1858,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CasellaDiTesto 13">
@@ -1920,8 +1925,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1287147" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CasellaDiTesto 14">
@@ -2036,7 +2041,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CasellaDiTesto 14">
@@ -2103,8 +2108,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="999761" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CasellaDiTesto 15">
@@ -2207,7 +2212,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CasellaDiTesto 15">
@@ -2274,8 +2279,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1154803" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CasellaDiTesto 16">
@@ -2382,7 +2387,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CasellaDiTesto 16">
@@ -2453,8 +2458,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1256049" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CasellaDiTesto 17">
@@ -2579,7 +2584,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CasellaDiTesto 17">
@@ -2646,8 +2651,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1319464" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CasellaDiTesto 18">
@@ -2762,7 +2767,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CasellaDiTesto 18">
@@ -2829,8 +2834,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031373" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CasellaDiTesto 19">
@@ -2933,7 +2938,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CasellaDiTesto 19">
@@ -3000,8 +3005,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1186415" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CasellaDiTesto 20">
@@ -3108,7 +3113,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CasellaDiTesto 20">
@@ -3179,8 +3184,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="887679" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CasellaDiTesto 25">
@@ -3271,7 +3276,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CasellaDiTesto 25">
@@ -3338,8 +3343,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1018036" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CasellaDiTesto 26">
@@ -3436,7 +3441,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CasellaDiTesto 26">
@@ -3503,8 +3508,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="989117" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CasellaDiTesto 27">
@@ -3601,7 +3606,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CasellaDiTesto 27">
@@ -3668,8 +3673,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="997709" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CasellaDiTesto 28">
@@ -3766,7 +3771,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CasellaDiTesto 28">
@@ -3833,8 +3838,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1224566" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CasellaDiTesto 29">
@@ -3956,7 +3961,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CasellaDiTesto 29">
@@ -4023,8 +4028,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1114088" cy="182614"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CasellaDiTesto 30">
@@ -4121,7 +4126,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CasellaDiTesto 30">
@@ -4188,8 +4193,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1190775" cy="182614"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="CasellaDiTesto 31">
@@ -4286,7 +4291,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="CasellaDiTesto 31">
@@ -4353,8 +4358,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1366271" cy="185756"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CasellaDiTesto 32">
@@ -4476,7 +4481,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CasellaDiTesto 32">
@@ -4543,8 +4548,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1485984" cy="194540"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CasellaDiTesto 33">
@@ -4586,6 +4591,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4695,7 +4701,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CasellaDiTesto 33">
@@ -4755,7 +4761,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5053,8 +5059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC7D8F-3CCB-42C2-B30B-10CD1EA35B91}">
   <dimension ref="B2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5064,64 +5070,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
@@ -5178,16 +5184,16 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>5.2179000000000003E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>5.2179000000000003E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>5.2179000000000003E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>5.2179000000000003E-2</v>
       </c>
     </row>
@@ -5205,27 +5211,27 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>1.7E-5</v>
       </c>
     </row>
@@ -5254,17 +5260,17 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>2.4000000000000001E-5</v>
       </c>
     </row>
@@ -5283,7 +5289,7 @@
       <c r="D24">
         <v>1.24</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
@@ -5294,26 +5300,26 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C27" s="6" t="s">
-        <v>22</v>
+      <c r="C27" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
@@ -5343,23 +5349,23 @@
       <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>6.3999999999999997E-6</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>3.024E-2</v>
@@ -5367,7 +5373,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>0.27800000000000002</v>
@@ -5375,9 +5381,9 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2">
         <v>1.6699999999999999E-4</v>
       </c>
       <c r="E38" s="7"/>
@@ -5386,15 +5392,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:G4"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B2:G4"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
